--- a/data/Vision-Screening-Data_Gold-Humanism_DEIDENTIFIED.xlsx
+++ b/data/Vision-Screening-Data_Gold-Humanism_DEIDENTIFIED.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Gold Humanism Glasses Grant/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_38A55DD58F79A89360642C52EA7BD2727ACAF91F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA85D682-7E8F-492F-A862-9D8D4769A32C}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_77291ED98F79A89360642C52EA7BD2727AC3EB4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF625FE0-13A3-470D-83DF-F5FBFDB4B6BA}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7275" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Screening Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="67">
   <si>
     <t>age</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Fear of Doctors</t>
+  </si>
+  <si>
+    <t>County/City Health</t>
+  </si>
+  <si>
+    <t>Cost, Fear of Doctors</t>
+  </si>
+  <si>
+    <t>Cost, Fear of Treatment</t>
   </si>
 </sst>
 </file>
@@ -568,26 +577,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="39" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5819,6 +5829,2107 @@
         <v>56</v>
       </c>
     </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>41</v>
+      </c>
+      <c r="B127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>41</v>
+      </c>
+      <c r="J127" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" t="s">
+        <v>21</v>
+      </c>
+      <c r="L127" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N127" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>51</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K128" t="s">
+        <v>50</v>
+      </c>
+      <c r="L128" t="s">
+        <v>22</v>
+      </c>
+      <c r="M128" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N128" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" t="s">
+        <v>28</v>
+      </c>
+      <c r="I129" t="s">
+        <v>29</v>
+      </c>
+      <c r="J129" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" t="s">
+        <v>63</v>
+      </c>
+      <c r="L129" t="s">
+        <v>22</v>
+      </c>
+      <c r="M129" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N129" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>63</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
+        <v>38</v>
+      </c>
+      <c r="H130" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" t="s">
+        <v>29</v>
+      </c>
+      <c r="J130" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" t="s">
+        <v>21</v>
+      </c>
+      <c r="L130" t="s">
+        <v>22</v>
+      </c>
+      <c r="M130" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N130" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>35</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s">
+        <v>34</v>
+      </c>
+      <c r="I131" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" t="s">
+        <v>62</v>
+      </c>
+      <c r="K131" t="s">
+        <v>35</v>
+      </c>
+      <c r="L131" t="s">
+        <v>22</v>
+      </c>
+      <c r="M131" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" t="s">
+        <v>22</v>
+      </c>
+      <c r="M132" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>55</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" t="s">
+        <v>42</v>
+      </c>
+      <c r="I133" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" t="s">
+        <v>21</v>
+      </c>
+      <c r="L133" t="s">
+        <v>22</v>
+      </c>
+      <c r="M133" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>34</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" t="s">
+        <v>41</v>
+      </c>
+      <c r="J134" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" t="s">
+        <v>21</v>
+      </c>
+      <c r="L134" t="s">
+        <v>22</v>
+      </c>
+      <c r="M134" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N134" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>55</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135" t="s">
+        <v>42</v>
+      </c>
+      <c r="I135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" t="s">
+        <v>21</v>
+      </c>
+      <c r="L135" t="s">
+        <v>22</v>
+      </c>
+      <c r="M135" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N135" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>49</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" t="s">
+        <v>35</v>
+      </c>
+      <c r="L136" t="s">
+        <v>22</v>
+      </c>
+      <c r="M136" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N136" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>51</v>
+      </c>
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>42</v>
+      </c>
+      <c r="H137" t="s">
+        <v>42</v>
+      </c>
+      <c r="I137" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" t="s">
+        <v>20</v>
+      </c>
+      <c r="K137" t="s">
+        <v>21</v>
+      </c>
+      <c r="L137" t="s">
+        <v>22</v>
+      </c>
+      <c r="M137" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N137" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>33</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" t="s">
+        <v>29</v>
+      </c>
+      <c r="K138" t="s">
+        <v>54</v>
+      </c>
+      <c r="L138" t="s">
+        <v>22</v>
+      </c>
+      <c r="M138" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N138" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" t="s">
+        <v>38</v>
+      </c>
+      <c r="I139" t="s">
+        <v>41</v>
+      </c>
+      <c r="J139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K139" t="s">
+        <v>35</v>
+      </c>
+      <c r="L139" t="s">
+        <v>22</v>
+      </c>
+      <c r="M139" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>29</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>28</v>
+      </c>
+      <c r="H140" t="s">
+        <v>28</v>
+      </c>
+      <c r="I140" t="s">
+        <v>29</v>
+      </c>
+      <c r="J140" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" t="s">
+        <v>21</v>
+      </c>
+      <c r="L140" t="s">
+        <v>22</v>
+      </c>
+      <c r="M140" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>37</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" t="s">
+        <v>64</v>
+      </c>
+      <c r="K141" t="s">
+        <v>21</v>
+      </c>
+      <c r="L141" t="s">
+        <v>22</v>
+      </c>
+      <c r="M141" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N141" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" t="s">
+        <v>37</v>
+      </c>
+      <c r="F142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" t="s">
+        <v>29</v>
+      </c>
+      <c r="J142" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" t="s">
+        <v>21</v>
+      </c>
+      <c r="L142" t="s">
+        <v>22</v>
+      </c>
+      <c r="M142" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N142" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>38</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>28</v>
+      </c>
+      <c r="H143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143" t="s">
+        <v>65</v>
+      </c>
+      <c r="L143" t="s">
+        <v>22</v>
+      </c>
+      <c r="M143" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N143" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>28</v>
+      </c>
+      <c r="B144" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" t="s">
+        <v>28</v>
+      </c>
+      <c r="I144" t="s">
+        <v>29</v>
+      </c>
+      <c r="L144" t="s">
+        <v>22</v>
+      </c>
+      <c r="M144" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N144" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>41</v>
+      </c>
+      <c r="J145" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" t="s">
+        <v>48</v>
+      </c>
+      <c r="L145" t="s">
+        <v>22</v>
+      </c>
+      <c r="M145" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N145" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>52</v>
+      </c>
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" t="s">
+        <v>50</v>
+      </c>
+      <c r="L146" t="s">
+        <v>22</v>
+      </c>
+      <c r="M146" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>31</v>
+      </c>
+      <c r="B147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s">
+        <v>37</v>
+      </c>
+      <c r="I147" t="s">
+        <v>41</v>
+      </c>
+      <c r="J147" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" t="s">
+        <v>21</v>
+      </c>
+      <c r="L147" t="s">
+        <v>22</v>
+      </c>
+      <c r="M147" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N147" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" t="s">
+        <v>28</v>
+      </c>
+      <c r="I148" t="s">
+        <v>29</v>
+      </c>
+      <c r="J148" t="s">
+        <v>20</v>
+      </c>
+      <c r="K148" t="s">
+        <v>21</v>
+      </c>
+      <c r="L148" t="s">
+        <v>22</v>
+      </c>
+      <c r="M148" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N148" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" t="s">
+        <v>42</v>
+      </c>
+      <c r="H149" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" t="s">
+        <v>21</v>
+      </c>
+      <c r="L149" t="s">
+        <v>22</v>
+      </c>
+      <c r="M149" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N149" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>43</v>
+      </c>
+      <c r="B150" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150" t="s">
+        <v>28</v>
+      </c>
+      <c r="I150" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" t="s">
+        <v>21</v>
+      </c>
+      <c r="L150" t="s">
+        <v>22</v>
+      </c>
+      <c r="M150" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N150" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>32</v>
+      </c>
+      <c r="B151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" t="s">
+        <v>21</v>
+      </c>
+      <c r="L151" t="s">
+        <v>22</v>
+      </c>
+      <c r="M151" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N151" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>59</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" t="s">
+        <v>37</v>
+      </c>
+      <c r="G152" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152" t="s">
+        <v>37</v>
+      </c>
+      <c r="I152" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" t="s">
+        <v>59</v>
+      </c>
+      <c r="L152" t="s">
+        <v>22</v>
+      </c>
+      <c r="M152" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>59</v>
+      </c>
+      <c r="B153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" t="s">
+        <v>27</v>
+      </c>
+      <c r="G153" t="s">
+        <v>37</v>
+      </c>
+      <c r="H153" t="s">
+        <v>37</v>
+      </c>
+      <c r="I153" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" t="s">
+        <v>60</v>
+      </c>
+      <c r="L153" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N153" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" t="s">
+        <v>27</v>
+      </c>
+      <c r="F154" t="s">
+        <v>27</v>
+      </c>
+      <c r="G154" t="s">
+        <v>38</v>
+      </c>
+      <c r="H154" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" t="s">
+        <v>20</v>
+      </c>
+      <c r="K154" t="s">
+        <v>21</v>
+      </c>
+      <c r="L154" t="s">
+        <v>22</v>
+      </c>
+      <c r="M154" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N154" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>26</v>
+      </c>
+      <c r="B155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" t="s">
+        <v>34</v>
+      </c>
+      <c r="F155" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" t="s">
+        <v>37</v>
+      </c>
+      <c r="H155" t="s">
+        <v>37</v>
+      </c>
+      <c r="I155" t="s">
+        <v>31</v>
+      </c>
+      <c r="J155" t="s">
+        <v>20</v>
+      </c>
+      <c r="K155" t="s">
+        <v>58</v>
+      </c>
+      <c r="L155" t="s">
+        <v>22</v>
+      </c>
+      <c r="M155" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N155" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>43</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" t="s">
+        <v>27</v>
+      </c>
+      <c r="G156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" t="s">
+        <v>20</v>
+      </c>
+      <c r="K156" t="s">
+        <v>21</v>
+      </c>
+      <c r="L156" t="s">
+        <v>22</v>
+      </c>
+      <c r="M156" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N156" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>45</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" t="s">
+        <v>28</v>
+      </c>
+      <c r="I157" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" t="s">
+        <v>21</v>
+      </c>
+      <c r="L157" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N157" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>30</v>
+      </c>
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" t="s">
+        <v>28</v>
+      </c>
+      <c r="I158" t="s">
+        <v>25</v>
+      </c>
+      <c r="J158" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" t="s">
+        <v>48</v>
+      </c>
+      <c r="L158" t="s">
+        <v>44</v>
+      </c>
+      <c r="M158" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N158" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>44</v>
+      </c>
+      <c r="B159" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" t="s">
+        <v>34</v>
+      </c>
+      <c r="H159" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" t="s">
+        <v>21</v>
+      </c>
+      <c r="L159" t="s">
+        <v>22</v>
+      </c>
+      <c r="M159" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N159" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>42</v>
+      </c>
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" t="s">
+        <v>38</v>
+      </c>
+      <c r="H160" t="s">
+        <v>37</v>
+      </c>
+      <c r="I160" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" t="s">
+        <v>21</v>
+      </c>
+      <c r="L160" t="s">
+        <v>22</v>
+      </c>
+      <c r="M160" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N160" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>53</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" t="s">
+        <v>27</v>
+      </c>
+      <c r="F161" t="s">
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>42</v>
+      </c>
+      <c r="H161" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" t="s">
+        <v>19</v>
+      </c>
+      <c r="J161" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" t="s">
+        <v>21</v>
+      </c>
+      <c r="L161" t="s">
+        <v>22</v>
+      </c>
+      <c r="M161" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N161" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" t="s">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" t="s">
+        <v>50</v>
+      </c>
+      <c r="L162" t="s">
+        <v>22</v>
+      </c>
+      <c r="M162" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N162" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>65</v>
+      </c>
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>30</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" t="s">
+        <v>37</v>
+      </c>
+      <c r="F163" t="s">
+        <v>37</v>
+      </c>
+      <c r="G163" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>31</v>
+      </c>
+      <c r="J163" t="s">
+        <v>20</v>
+      </c>
+      <c r="K163" t="s">
+        <v>21</v>
+      </c>
+      <c r="L163" t="s">
+        <v>22</v>
+      </c>
+      <c r="M163" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N163" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>36</v>
+      </c>
+      <c r="B164" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" t="s">
+        <v>41</v>
+      </c>
+      <c r="J164" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" t="s">
+        <v>21</v>
+      </c>
+      <c r="L164" t="s">
+        <v>22</v>
+      </c>
+      <c r="M164" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N164" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>37</v>
+      </c>
+      <c r="B165" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" t="s">
+        <v>27</v>
+      </c>
+      <c r="I165" t="s">
+        <v>41</v>
+      </c>
+      <c r="J165" t="s">
+        <v>20</v>
+      </c>
+      <c r="K165" t="s">
+        <v>21</v>
+      </c>
+      <c r="L165" t="s">
+        <v>44</v>
+      </c>
+      <c r="M165" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>53</v>
+      </c>
+      <c r="B166" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" t="s">
+        <v>37</v>
+      </c>
+      <c r="F166" t="s">
+        <v>37</v>
+      </c>
+      <c r="G166" t="s">
+        <v>42</v>
+      </c>
+      <c r="H166" t="s">
+        <v>42</v>
+      </c>
+      <c r="I166" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" t="s">
+        <v>20</v>
+      </c>
+      <c r="K166" t="s">
+        <v>32</v>
+      </c>
+      <c r="L166" t="s">
+        <v>22</v>
+      </c>
+      <c r="M166" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N166" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>36</v>
+      </c>
+      <c r="C167" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
+        <v>38</v>
+      </c>
+      <c r="G167" t="s">
+        <v>38</v>
+      </c>
+      <c r="H167" t="s">
+        <v>37</v>
+      </c>
+      <c r="I167" t="s">
+        <v>29</v>
+      </c>
+      <c r="J167" t="s">
+        <v>20</v>
+      </c>
+      <c r="K167" t="s">
+        <v>21</v>
+      </c>
+      <c r="L167" t="s">
+        <v>22</v>
+      </c>
+      <c r="M167" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N167" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>40</v>
+      </c>
+      <c r="B168" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" t="s">
+        <v>20</v>
+      </c>
+      <c r="K168" t="s">
+        <v>66</v>
+      </c>
+      <c r="L168" t="s">
+        <v>22</v>
+      </c>
+      <c r="M168" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>29</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" t="s">
+        <v>25</v>
+      </c>
+      <c r="J169" t="s">
+        <v>20</v>
+      </c>
+      <c r="L169" t="s">
+        <v>22</v>
+      </c>
+      <c r="M169" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N169" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>27</v>
+      </c>
+      <c r="B170" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" t="s">
+        <v>37</v>
+      </c>
+      <c r="G170" t="s">
+        <v>34</v>
+      </c>
+      <c r="H170" t="s">
+        <v>34</v>
+      </c>
+      <c r="I170" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" t="s">
+        <v>21</v>
+      </c>
+      <c r="L170" t="s">
+        <v>22</v>
+      </c>
+      <c r="M170" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N170" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>49</v>
+      </c>
+      <c r="B171" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" t="s">
+        <v>27</v>
+      </c>
+      <c r="G171" t="s">
+        <v>37</v>
+      </c>
+      <c r="H171" t="s">
+        <v>38</v>
+      </c>
+      <c r="I171" t="s">
+        <v>41</v>
+      </c>
+      <c r="J171" t="s">
+        <v>20</v>
+      </c>
+      <c r="K171" t="s">
+        <v>35</v>
+      </c>
+      <c r="L171" t="s">
+        <v>22</v>
+      </c>
+      <c r="M171" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N171" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>49</v>
+      </c>
+      <c r="B172" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" t="s">
+        <v>21</v>
+      </c>
+      <c r="L172" t="s">
+        <v>22</v>
+      </c>
+      <c r="M172" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N172" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>42</v>
+      </c>
+      <c r="B173" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>37</v>
+      </c>
+      <c r="G173" t="s">
+        <v>34</v>
+      </c>
+      <c r="H173" t="s">
+        <v>27</v>
+      </c>
+      <c r="I173" t="s">
+        <v>41</v>
+      </c>
+      <c r="J173" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173" t="s">
+        <v>22</v>
+      </c>
+      <c r="M173" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N173" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>46</v>
+      </c>
+      <c r="B174" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" t="s">
+        <v>27</v>
+      </c>
+      <c r="H174" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" t="s">
+        <v>20</v>
+      </c>
+      <c r="K174" t="s">
+        <v>35</v>
+      </c>
+      <c r="L174" t="s">
+        <v>22</v>
+      </c>
+      <c r="M174" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N174" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>41</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" t="s">
+        <v>27</v>
+      </c>
+      <c r="G175" t="s">
+        <v>27</v>
+      </c>
+      <c r="H175" t="s">
+        <v>27</v>
+      </c>
+      <c r="I175" t="s">
+        <v>31</v>
+      </c>
+      <c r="J175" t="s">
+        <v>20</v>
+      </c>
+      <c r="K175" t="s">
+        <v>21</v>
+      </c>
+      <c r="L175" t="s">
+        <v>22</v>
+      </c>
+      <c r="M175" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N175" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>32</v>
+      </c>
+      <c r="B176" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>38</v>
+      </c>
+      <c r="H176" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" t="s">
+        <v>41</v>
+      </c>
+      <c r="K176" t="s">
+        <v>65</v>
+      </c>
+      <c r="L176" t="s">
+        <v>22</v>
+      </c>
+      <c r="M176" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N176" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Vision-Screening-Data_Gold-Humanism_DEIDENTIFIED.xlsx
+++ b/data/Vision-Screening-Data_Gold-Humanism_DEIDENTIFIED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Gold Humanism Glasses Grant/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_77291ED98F79A89360642C52EA7BD2727AC3EB4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF625FE0-13A3-470D-83DF-F5FBFDB4B6BA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_C7917DC98F79A89360642C52EA7BD2725AC4BFBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B5984D7-15F7-4E8F-8B97-4958A548ED50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="68">
   <si>
     <t>age</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Cost, Fear of Treatment</t>
+  </si>
+  <si>
+    <t>Cost, Clinic Waiting Time, Lack of Knowledge, Other</t>
   </si>
 </sst>
 </file>
@@ -577,27 +580,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7930,6 +7933,340 @@
         <v>56</v>
       </c>
     </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>45</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" t="s">
+        <v>33</v>
+      </c>
+      <c r="E177" t="s">
+        <v>27</v>
+      </c>
+      <c r="F177" t="s">
+        <v>37</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" t="s">
+        <v>38</v>
+      </c>
+      <c r="I177" t="s">
+        <v>31</v>
+      </c>
+      <c r="J177" t="s">
+        <v>20</v>
+      </c>
+      <c r="K177" t="s">
+        <v>21</v>
+      </c>
+      <c r="L177" t="s">
+        <v>22</v>
+      </c>
+      <c r="M177" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N177" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>36</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>53</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
+        <v>37</v>
+      </c>
+      <c r="G178" t="s">
+        <v>34</v>
+      </c>
+      <c r="H178" t="s">
+        <v>27</v>
+      </c>
+      <c r="I178" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" t="s">
+        <v>54</v>
+      </c>
+      <c r="L178" t="s">
+        <v>22</v>
+      </c>
+      <c r="M178" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N178" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>41</v>
+      </c>
+      <c r="B179" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" t="s">
+        <v>37</v>
+      </c>
+      <c r="G179" t="s">
+        <v>42</v>
+      </c>
+      <c r="H179" t="s">
+        <v>42</v>
+      </c>
+      <c r="I179" t="s">
+        <v>41</v>
+      </c>
+      <c r="J179" t="s">
+        <v>20</v>
+      </c>
+      <c r="K179" t="s">
+        <v>67</v>
+      </c>
+      <c r="L179" t="s">
+        <v>22</v>
+      </c>
+      <c r="M179" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N179" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>47</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" t="s">
+        <v>37</v>
+      </c>
+      <c r="I180" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180" t="s">
+        <v>21</v>
+      </c>
+      <c r="L180" t="s">
+        <v>22</v>
+      </c>
+      <c r="M180" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N180" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>42</v>
+      </c>
+      <c r="B181" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181" t="s">
+        <v>34</v>
+      </c>
+      <c r="I181" t="s">
+        <v>29</v>
+      </c>
+      <c r="J181" t="s">
+        <v>20</v>
+      </c>
+      <c r="K181" t="s">
+        <v>21</v>
+      </c>
+      <c r="L181" t="s">
+        <v>22</v>
+      </c>
+      <c r="M181" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N181" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>30</v>
+      </c>
+      <c r="D182" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" t="s">
+        <v>37</v>
+      </c>
+      <c r="F182" t="s">
+        <v>37</v>
+      </c>
+      <c r="G182" t="s">
+        <v>38</v>
+      </c>
+      <c r="H182" t="s">
+        <v>37</v>
+      </c>
+      <c r="I182" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" t="s">
+        <v>65</v>
+      </c>
+      <c r="L182" t="s">
+        <v>22</v>
+      </c>
+      <c r="M182" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" t="s">
+        <v>37</v>
+      </c>
+      <c r="F183" t="s">
+        <v>37</v>
+      </c>
+      <c r="G183" t="s">
+        <v>38</v>
+      </c>
+      <c r="H183" t="s">
+        <v>34</v>
+      </c>
+      <c r="I183" t="s">
+        <v>31</v>
+      </c>
+      <c r="J183" t="s">
+        <v>20</v>
+      </c>
+      <c r="K183" t="s">
+        <v>21</v>
+      </c>
+      <c r="L183" t="s">
+        <v>22</v>
+      </c>
+      <c r="M183" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>36</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>30</v>
+      </c>
+      <c r="E184" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" t="s">
+        <v>37</v>
+      </c>
+      <c r="H184" t="s">
+        <v>37</v>
+      </c>
+      <c r="I184" t="s">
+        <v>41</v>
+      </c>
+      <c r="J184" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184" t="s">
+        <v>21</v>
+      </c>
+      <c r="L184" t="s">
+        <v>22</v>
+      </c>
+      <c r="M184" s="2">
+        <v>45318</v>
+      </c>
+      <c r="N184" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
